--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -455,6 +455,12 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>9321944.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7990296.0</v>
+      </c>
       <c r="C5" t="n">
         <v>1301592.0</v>
       </c>
@@ -463,6 +469,12 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="n">
+        <v>7874784.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9301696.0</v>
+      </c>
       <c r="C6" t="n">
         <v>1310128.0</v>
       </c>
@@ -484,6 +496,30 @@
       </c>
       <c r="D8" t="n">
         <v>1298912.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n">
+        <v>1331800.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1331712.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n">
+        <v>1331688.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1331688.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>1331744.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1331688.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -522,6 +522,22 @@
         <v>1331688.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>1331688.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1331688.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="n">
+        <v>1300968.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -483,6 +483,12 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="n">
+        <v>9321928.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7990280.0</v>
+      </c>
       <c r="C7" t="n">
         <v>1331688.0</v>
       </c>
@@ -491,6 +497,12 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>9192224.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7879120.0</v>
+      </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFCFA11-731D-4489-948A-D54350C35785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8BC6B-50BA-4569-9D3D-90332EA5FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Usage" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>BFS Memory Usage 10000 (bytes)</t>
-  </si>
-  <si>
-    <t>DFS Memory Usage 10000 (bytes)</t>
-  </si>
-  <si>
-    <t>BFS Memory Usage 1000 (bytes)</t>
-  </si>
-  <si>
-    <t>DFS Memory Usage 1000 (bytes)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Graph BFS Memory Usage 10000 (bytes)</t>
+  </si>
+  <si>
+    <t>Graph DFS Memory Usage 10000 (bytes)</t>
+  </si>
+  <si>
+    <t>Graph BFS Memory Usage 1000 (bytes)</t>
+  </si>
+  <si>
+    <t>Graph DFS Memory Usage 1000 (bytes)</t>
+  </si>
+  <si>
+    <t>Tree BFS Memory Usage 10000 (bytes)</t>
+  </si>
+  <si>
+    <t>Tree DFS Memory Usage 10000 (bytes)</t>
+  </si>
+  <si>
+    <t>Tree BFS Memory Usage 1000 (bytes)</t>
+  </si>
+  <si>
+    <t>Tree DFS Memory Usage 1000 (bytes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,21 +395,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.44140625"/>
-    <col min="2" max="2" customWidth="true" width="30.21875"/>
-    <col min="3" max="3" customWidth="true" width="27.88671875"/>
-    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,143 +423,51 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9411104</v>
+        <v>9312680</v>
       </c>
       <c r="B2">
-        <v>9185016</v>
+        <v>7982304</v>
       </c>
       <c r="C2">
-        <v>1331776</v>
+        <v>1316056</v>
       </c>
       <c r="D2">
-        <v>1331688</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6658600</v>
+      </c>
+      <c r="F2">
+        <v>5326808</v>
+      </c>
+      <c r="G2">
+        <v>2663432</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-5.57184E7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9111112.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1312168.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9111176.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7809608.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1328520.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9321944.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7990296.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1301592.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1301568.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7874784.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9301696.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1310128.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1310072.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9321928.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7990280.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1331688.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9192224.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7879120.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1298912.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="n">
-        <v>1331800.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1331712.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="n">
-        <v>1331688.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1331688.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="n">
-        <v>1331744.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1331688.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="n">
-        <v>1331688.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1331688.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="n">
-        <v>1300968.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1316048</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -50,6 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,19 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0"/>
+    <col min="2" max="2" customWidth="true" width="34.21875"/>
+    <col min="3" max="3" customWidth="true" width="33.33203125"/>
+    <col min="4" max="4" customWidth="true" width="33.5546875"/>
+    <col min="5" max="6" customWidth="true" width="33.0"/>
+    <col min="7" max="7" customWidth="true" width="31.77734375"/>
+    <col min="8" max="8" customWidth="true" width="32.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -463,11 +464,49 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="n">
+        <v>9321920.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7995384.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1300192.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6658656.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5326856.0</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <v>1316048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="n">
+        <v>1331688.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1331688.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5318520.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5318536.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1329840.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8BC6B-50BA-4569-9D3D-90332EA5FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87986F78-BF50-4489-B7B1-17857FC9264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +108,4191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS Memory Usage 10000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9312680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9321920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9321864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C503-4294-B87C-6F55DF542A56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS Memory Usage 10000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7982304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7995384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7990368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C503-4294-B87C-6F55DF542A56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2058637951"/>
+        <c:axId val="2058630463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2058637951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058630463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2058630463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058637951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS Memory Usage 1000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1316056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1331688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE48-40D4-906A-F5FA5C2842F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS Memory Usage 1000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1331688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE48-40D4-906A-F5FA5C2842F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2058637535"/>
+        <c:axId val="2058642943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2058637535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058642943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2058642943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058637535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS Memory Usage 10000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6658600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6658656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5318520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-476E-4764-B5F2-2592591FF439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS Memory Usage 10000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5326808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5326856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5318536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-476E-4764-B5F2-2592591FF439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2058633375"/>
+        <c:axId val="2058635455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2058633375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058635455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2058635455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058633375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS Memory Usage 1000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2663432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1329840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82DA-4EDA-BC6B-1C06C6E90B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memory Usage'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS Memory Usage 1000 (bytes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory Usage'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1316048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82DA-4EDA-BC6B-1C06C6E90B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2067495503"/>
+        <c:axId val="2067499247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2067495503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067499247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067499247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067495503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99301CC-4F45-CDCD-4E38-C68471A5C5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA1B80C-87DF-6F3B-1995-D641574ED756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7FC404-3F62-E439-EA02-51139B095BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B630AF69-723A-8D9F-3868-6666F1930191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,44 +4592,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0"/>
-    <col min="2" max="2" customWidth="true" width="34.21875"/>
-    <col min="3" max="3" customWidth="true" width="33.33203125"/>
-    <col min="4" max="4" customWidth="true" width="33.5546875"/>
-    <col min="5" max="6" customWidth="true" width="33.0"/>
-    <col min="7" max="7" customWidth="true" width="31.77734375"/>
-    <col min="8" max="8" customWidth="true" width="32.21875"/>
+    <col min="1" max="1" customWidth="true" width="25.21875"/>
+    <col min="2" max="3" customWidth="true" width="25.6640625"/>
+    <col min="4" max="4" customWidth="true" width="26.21875"/>
+    <col min="5" max="5" customWidth="true" width="24.109375"/>
+    <col min="6" max="6" customWidth="true" width="25.33203125"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625"/>
+    <col min="8" max="8" customWidth="true" width="24.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -464,23 +4662,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="n">
-        <v>9321920.0</v>
+      <c r="A3">
+        <v>9321920</v>
       </c>
-      <c r="B3" t="n">
-        <v>7995384.0</v>
+      <c r="B3">
+        <v>7995384</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+      <c r="C3">
+        <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>1300192.0</v>
+      <c r="D3">
+        <v>1300192</v>
       </c>
-      <c r="E3" t="n">
-        <v>6658656.0</v>
+      <c r="E3">
+        <v>6658656</v>
       </c>
-      <c r="F3" t="n">
-        <v>5326856.0</v>
+      <c r="F3">
+        <v>5326856</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,27 +4687,43 @@
         <v>1316048</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9321864</v>
+      </c>
+      <c r="B4">
+        <v>7990368</v>
+      </c>
+      <c r="C4">
+        <v>1331688</v>
+      </c>
+      <c r="D4">
+        <v>1331688</v>
+      </c>
+      <c r="E4">
+        <v>5318520</v>
+      </c>
+      <c r="F4">
+        <v>5318536</v>
+      </c>
+      <c r="G4">
+        <v>1329840</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="n">
         <v>1331688.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1331688.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5318520.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5318536.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1329840.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87986F78-BF50-4489-B7B1-17857FC9264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97465D7-55DD-4E3E-B64E-BC48C7F3CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,6 +125,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory Usage Graph 10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -245,10 +270,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$A$2:$A$4</c:f>
+              <c:f>'Memory Usage'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9312680</c:v>
                 </c:pt>
@@ -257,6 +282,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9321864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9176616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9105384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,10 +382,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$B$2:$B$4</c:f>
+              <c:f>'Memory Usage'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7982304</c:v>
                 </c:pt>
@@ -363,6 +394,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7990368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7865744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7804552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,6 +628,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory Usage Graph 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,17 +773,20 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$C$2:$C$4</c:f>
+              <c:f>'Memory Usage'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1316056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1331688</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1331688</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1331688</c:v>
                 </c:pt>
               </c:numCache>
@@ -822,10 +887,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1331688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1300192</c:v>
+                  <c:v>1331688</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1331688</c:v>
@@ -1057,6 +1122,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Memory Usage Tree 10000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1177,18 +1272,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$E$2:$E$4</c:f>
+              <c:f>'Memory Usage'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6658600</c:v>
+                  <c:v>6658656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6658656</c:v>
+                  <c:v>5318520</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5318520</c:v>
+                  <c:v>5203096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5203072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,10 +1381,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$F$2:$F$4</c:f>
+              <c:f>'Memory Usage'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5326808</c:v>
                 </c:pt>
@@ -1295,6 +1393,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5318536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5203120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,6 +1624,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory Usage Tree 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1643,18 +1769,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$G$2:$G$4</c:f>
+              <c:f>'Memory Usage'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2663432</c:v>
+                  <c:v>1547344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1547440</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1329840</c:v>
+                  <c:v>1552360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,18 +1875,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Memory Usage'!$H$2:$H$4</c:f>
+              <c:f>'Memory Usage'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1316048</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,13 +4313,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:colOff>1230630</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>115252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
@@ -4222,16 +4348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105727</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>141922</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4258,16 +4384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105727</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1243965</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>141922</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4592,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4646,19 +4772,19 @@
         <v>1316056</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1331688</v>
       </c>
       <c r="E2">
-        <v>6658600</v>
+        <v>6658656</v>
       </c>
       <c r="F2">
         <v>5326808</v>
       </c>
       <c r="G2">
-        <v>2663432</v>
+        <v>1547344</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4669,22 +4795,22 @@
         <v>7995384</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1331688</v>
       </c>
       <c r="D3">
-        <v>1300192</v>
+        <v>1331688</v>
       </c>
       <c r="E3">
-        <v>6658656</v>
+        <v>5318520</v>
       </c>
       <c r="F3">
         <v>5326856</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1547440</v>
       </c>
       <c r="H3">
-        <v>1316048</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4701,24 +4827,62 @@
         <v>1331688</v>
       </c>
       <c r="E4">
-        <v>5318520</v>
+        <v>5203096</v>
       </c>
       <c r="F4">
         <v>5318536</v>
       </c>
       <c r="G4">
-        <v>1329840</v>
+        <v>1552360</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2600</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>1331688.0</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9176616</v>
       </c>
-      <c r="D5" t="n">
-        <v>1331688.0</v>
+      <c r="B5">
+        <v>7865744</v>
+      </c>
+      <c r="C5">
+        <v>1331688</v>
+      </c>
+      <c r="D5">
+        <v>1331688</v>
+      </c>
+      <c r="E5">
+        <v>5203072</v>
+      </c>
+      <c r="F5">
+        <v>5203120</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9105384</v>
+      </c>
+      <c r="B6">
+        <v>7804552</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2032.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2663560.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -546,16 +546,24 @@
       <c r="B2" t="n">
         <v>7990376.0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" t="n">
+        <v>0.12734222412109375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11981964111328125</v>
+      </c>
       <c r="E2" s="7">
         <v>41305960</v>
       </c>
       <c r="F2" s="7">
         <v>-20688360</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1821456.0</v>
+      </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
@@ -570,16 +578,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" t="n">
+        <v>-0.34369659423828125</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2271499633789062</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2700424194335938</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.1018832E7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.045656E7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1861304.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="K3" t="n">
         <v>2.7998704E7</v>
       </c>
@@ -588,16 +616,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" t="n">
+        <v>2.91552734375</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.6513214111328125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.7562789916992188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7562789916992188</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.134796142578125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.1512298583984375</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="K4" t="n">
         <v>2.6667048E7</v>
       </c>
@@ -606,26 +650,58 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" t="n">
+        <v>1.905059814453125</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.1751022338867188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.224334716796875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.676353454589844</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.676322937011719</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" t="n">
+        <v>3266064.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2770920.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.576286315917969</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.5762939453125</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="11"/>
@@ -636,10 +712,18 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" t="n">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0100424E7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0100392E7</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
@@ -650,7 +734,9 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
+      <c r="C8" t="n">
+        <v>665888.0</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -664,8 +750,12 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
@@ -678,8 +768,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" t="n">
+        <v>1832400.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1832400.0</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D1869C-0854-4F19-B413-E3632D5C7538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A007AD-613D-4ADD-B6FB-1E260FA6FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Usage" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,16 +540,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="n">
-        <v>9321896.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7990376.0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2">
+        <v>9321896</v>
+      </c>
+      <c r="B2">
+        <v>7990376</v>
+      </c>
+      <c r="C2">
         <v>0.12734222412109375</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.11981964111328125</v>
       </c>
       <c r="E2" s="7">
@@ -558,342 +558,508 @@
       <c r="F2" s="7">
         <v>-20688360</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1821456.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1317312.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6339848E7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.8574264E7</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1821456</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1317312</v>
+      </c>
+      <c r="K2">
+        <v>26339848</v>
+      </c>
+      <c r="L2">
+        <v>28574264</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>-0.34369659423828125</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.2271499633789062</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>1.2271499633789063</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1.2700424194335938</v>
       </c>
-      <c r="E3" t="n">
-        <v>4.1018832E7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-2.045656E7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1861304.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="E3">
+        <v>41018832</v>
+      </c>
+      <c r="F3">
+        <v>-20456560</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1861304</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1331736</v>
+      </c>
+      <c r="K3">
+        <v>27998704</v>
+      </c>
+      <c r="L3">
+        <v>25564920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.91552734375</v>
+      </c>
+      <c r="B4">
+        <v>2.6513214111328125</v>
+      </c>
+      <c r="C4">
+        <v>1.7562789916992188</v>
+      </c>
+      <c r="D4">
+        <v>1.7562789916992188</v>
+      </c>
+      <c r="E4">
+        <v>6.134796142578125</v>
+      </c>
+      <c r="F4">
+        <v>6.1512298583984375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1306760.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1810928.0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1331736</v>
+      </c>
+      <c r="K4">
+        <v>26667048</v>
+      </c>
+      <c r="L4">
+        <v>25302640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.905059814453125</v>
+      </c>
+      <c r="B5">
+        <v>3.1751022338867188</v>
+      </c>
+      <c r="C5">
+        <v>1.224334716796875</v>
+      </c>
+      <c r="D5">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="E5">
+        <v>9.6763534545898438</v>
+      </c>
+      <c r="F5">
+        <v>9.6763229370117188</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3266064</v>
+      </c>
+      <c r="B6">
+        <v>2770920</v>
+      </c>
+      <c r="C6">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="D6">
+        <v>1.735260009765625</v>
+      </c>
+      <c r="E6">
+        <v>9.5762863159179688</v>
+      </c>
+      <c r="F6">
+        <v>9.5762939453125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1331736.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.7998704E7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.556492E7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="n">
-        <v>2.91552734375</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.6513214111328125</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.7562789916992188</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.7562789916992188</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.134796142578125</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.1512298583984375</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1331736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n">
         <v>1331736.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.6667048E7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.530264E7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="n">
-        <v>1.905059814453125</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.1751022338867188</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.224334716796875</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C7">
         <v>1.735260009765625</v>
       </c>
-      <c r="E5" t="n">
-        <v>9.676353454589844</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.676322937011719</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="n">
-        <v>3266064.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2770920.0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D7">
         <v>1.735260009765625</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.735260009765625</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.576286315917969</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.5762939453125</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" t="n">
-        <v>1.735260009765625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.735260009765625</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0100424E7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0100392E7</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="E7">
+        <v>10100424</v>
+      </c>
+      <c r="F7">
+        <v>10100392</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1331736.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" t="n">
-        <v>665888.0</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="A8" t="n">
+        <v>1897008.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1897008.0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1331736</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1331736.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1331736.0</v>
+      <c r="A9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3329336.0</v>
+      </c>
+      <c r="C9">
+        <v>1832400</v>
+      </c>
+      <c r="D9">
+        <v>1832400</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1331736.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" t="n">
-        <v>1832400.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1832400.0</v>
+      <c r="C10">
+        <v>1997600</v>
+      </c>
+      <c r="D10">
+        <v>3329336</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="I10" t="n">
+        <v>1810928.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1810928.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11">
+        <v>1997600</v>
+      </c>
+      <c r="D11">
+        <v>1331736</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" t="n">
+        <v>1997600.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1810928.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" t="n">
+        <v>2811248.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1862240.0</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1897008.0</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" t="n">
+        <v>1897008.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1897008.0</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" t="n">
+        <v>1307656.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1832760.0</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -904,10 +1070,18 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -918,10 +1092,18 @@
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -932,8 +1114,12 @@
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
@@ -946,8 +1132,12 @@
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
@@ -960,8 +1150,12 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
@@ -979,20 +1173,6 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -782,8 +782,12 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
@@ -812,8 +816,12 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
@@ -828,8 +836,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" t="n">
+        <v>1299800.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1780816.0</v>
+      </c>
       <c r="C10">
         <v>1997600</v>
       </c>
@@ -838,8 +850,12 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I10" t="n">
         <v>1810928.0</v>
       </c>
@@ -864,8 +880,12 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
@@ -890,8 +910,12 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
@@ -916,8 +940,12 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
@@ -942,8 +970,12 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
@@ -968,8 +1000,12 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" t="n">
+        <v>-1334448.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>600.0</v>
+      </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
@@ -994,8 +1030,12 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
@@ -1020,8 +1060,12 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
@@ -1046,8 +1090,12 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
@@ -1064,8 +1112,12 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1331736.0</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
@@ -1086,8 +1138,12 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
@@ -1120,8 +1176,12 @@
       <c r="J21" t="n">
         <v>0.0</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1138,8 +1198,12 @@
       <c r="J22" t="n">
         <v>0.0</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -1156,8 +1220,12 @@
       <c r="J23" t="n">
         <v>0.0</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -1168,10 +1236,48 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-7712.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,17 +486,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.44140625"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125"/>
+    <col min="3" max="3" customWidth="true" width="20.77734375"/>
+    <col min="4" max="4" customWidth="true" width="21.21875"/>
+    <col min="5" max="5" customWidth="true" width="22.33203125"/>
+    <col min="6" max="6" customWidth="true" width="22.0"/>
+    <col min="7" max="8" customWidth="true" width="20.21875"/>
+    <col min="9" max="9" customWidth="true" width="19.0"/>
+    <col min="10" max="10" customWidth="true" width="18.88671875"/>
+    <col min="11" max="11" customWidth="true" width="19.77734375"/>
+    <col min="12" max="12" customWidth="true" width="19.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -591,6 +592,12 @@
       <c r="F3" s="7"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
+      <c r="I3" t="n">
+        <v>3120096.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2413312.0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -609,6 +616,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
+      <c r="I4" t="n">
+        <v>7197608.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1313128.0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6530,7 +6531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
@@ -6538,18 +6539,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.44140625"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125"/>
+    <col min="3" max="3" customWidth="true" width="20.77734375"/>
+    <col min="4" max="4" customWidth="true" width="21.21875"/>
+    <col min="5" max="5" customWidth="true" width="22.33203125"/>
+    <col min="6" max="6" customWidth="true" width="22.0"/>
+    <col min="7" max="7" customWidth="true" width="20.21875"/>
+    <col min="8" max="8" customWidth="true" width="21.109375"/>
+    <col min="9" max="9" customWidth="true" width="19.0"/>
+    <col min="10" max="10" customWidth="true" width="19.44140625"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375"/>
+    <col min="12" max="12" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6968,6 +6969,14 @@
       </c>
       <c r="L11" s="8">
         <v>43693440</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="K12" t="n">
+        <v>2.3919576E7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.2370048E7</v>
       </c>
     </row>
   </sheetData>
